--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B189F05C-DD64-4BCA-9063-FE3694A59F4F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{8A0AC2EB-B2A7-42DB-AC0A-3FF68C4BD9D8}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,12 +144,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка, дни</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Штраф, руб.</t>
   </si>
   <si>
@@ -178,14 +166,20 @@
   </si>
   <si>
     <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="#,##0\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ &quot;₽&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -230,7 +224,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -550,18 +544,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F217474C-8131-4F68-903C-EF30E15464D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,7 +568,7 @@
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="9.875" customWidth="1"/>
   </cols>
@@ -595,10 +589,10 @@
         <v>38</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>39</v>
@@ -607,16 +601,16 @@
         <v>40</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="K2" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -630,7 +624,6 @@
         <v>70</v>
       </c>
       <c r="D3">
-        <f>36*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E3">
@@ -670,11 +663,11 @@
         <v>69.5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D34" si="0">36*1.1</f>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>2752.2000000000003</v>
       </c>
       <c r="F4" s="2">
@@ -684,18 +677,18 @@
         <v>44806</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H38" si="2">IF(OR(G4&lt;F4,G4=F4),0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(OR(G4&lt;F4,G4=F4),0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>2752.2000000000003</v>
       </c>
     </row>
@@ -711,11 +704,11 @@
         <v>69</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2732.4</v>
       </c>
       <c r="F5" s="2">
@@ -725,18 +718,18 @@
         <v>44807</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2732.4</v>
       </c>
     </row>
@@ -752,11 +745,11 @@
         <v>68.5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2712.6</v>
       </c>
       <c r="F6" s="2">
@@ -766,18 +759,18 @@
         <v>44808</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2712.6</v>
       </c>
     </row>
@@ -789,15 +782,15 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C38" si="5">C6-0.5</f>
+        <f t="shared" ref="C7:C38" si="4">C6-0.5</f>
         <v>68</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2692.8</v>
       </c>
       <c r="F7" s="2">
@@ -807,18 +800,18 @@
         <v>44809</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7">
         <v>10</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2692.8</v>
       </c>
     </row>
@@ -830,15 +823,15 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2673</v>
       </c>
       <c r="F8" s="2">
@@ -848,18 +841,18 @@
         <v>44810</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2673</v>
       </c>
     </row>
@@ -871,15 +864,15 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2653.2000000000003</v>
       </c>
       <c r="F9" s="2">
@@ -889,18 +882,18 @@
         <v>44811</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2653.2000000000003</v>
       </c>
     </row>
@@ -912,15 +905,15 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2633.4</v>
       </c>
       <c r="F10" s="2">
@@ -930,18 +923,18 @@
         <v>44812</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10">
         <v>10</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2633.4</v>
       </c>
     </row>
@@ -953,15 +946,15 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2613.6</v>
       </c>
       <c r="F11" s="2">
@@ -971,18 +964,18 @@
         <v>44813</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2613.6</v>
       </c>
     </row>
@@ -994,15 +987,15 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2593.8000000000002</v>
       </c>
       <c r="F12" s="2">
@@ -1012,18 +1005,18 @@
         <v>44814</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2603.8000000000002</v>
       </c>
     </row>
@@ -1035,15 +1028,15 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2574</v>
       </c>
       <c r="F13" s="2">
@@ -1053,18 +1046,18 @@
         <v>44815</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2594</v>
       </c>
     </row>
@@ -1076,15 +1069,15 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2554.2000000000003</v>
       </c>
       <c r="F14" s="2">
@@ -1094,18 +1087,18 @@
         <v>44816</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2584.2000000000003</v>
       </c>
     </row>
@@ -1117,15 +1110,15 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2534.4</v>
       </c>
       <c r="F15" s="2">
@@ -1135,18 +1128,18 @@
         <v>44817</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2574.4</v>
       </c>
     </row>
@@ -1158,15 +1151,15 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2514.6</v>
       </c>
       <c r="F16" s="2">
@@ -1176,18 +1169,18 @@
         <v>44818</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16">
         <v>10</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2564.6</v>
       </c>
     </row>
@@ -1199,15 +1192,15 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2494.8000000000002</v>
       </c>
       <c r="F17" s="2">
@@ -1217,18 +1210,18 @@
         <v>44819</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17">
         <v>10</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2554.8000000000002</v>
       </c>
     </row>
@@ -1240,15 +1233,15 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2475</v>
       </c>
       <c r="F18" s="2">
@@ -1258,18 +1251,18 @@
         <v>44820</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2545</v>
       </c>
     </row>
@@ -1281,15 +1274,15 @@
         <v>18</v>
       </c>
       <c r="C19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2455.2000000000003</v>
       </c>
       <c r="F19" s="2">
@@ -1299,18 +1292,18 @@
         <v>44821</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2535.2000000000003</v>
       </c>
     </row>
@@ -1322,15 +1315,15 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2435.4</v>
       </c>
       <c r="F20" s="2">
@@ -1340,18 +1333,18 @@
         <v>44822</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2525.4</v>
       </c>
     </row>
@@ -1363,15 +1356,15 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2415.6</v>
       </c>
       <c r="F21" s="2">
@@ -1381,18 +1374,18 @@
         <v>44823</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21">
         <v>10</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2515.6</v>
       </c>
     </row>
@@ -1404,15 +1397,15 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22">
-        <f>36*1.1</f>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2395.8000000000002</v>
       </c>
       <c r="F22" s="2">
@@ -1422,18 +1415,18 @@
         <v>44824</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2505.8000000000002</v>
       </c>
     </row>
@@ -1445,15 +1438,15 @@
         <v>22</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2376</v>
       </c>
       <c r="F23" s="2">
@@ -1463,18 +1456,18 @@
         <v>44825</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23">
         <v>10</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2496</v>
       </c>
     </row>
@@ -1486,15 +1479,15 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2356.2000000000003</v>
       </c>
       <c r="F24" s="2">
@@ -1504,18 +1497,18 @@
         <v>44826</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24">
         <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2486.2000000000003</v>
       </c>
     </row>
@@ -1527,15 +1520,15 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2336.4</v>
       </c>
       <c r="F25" s="2">
@@ -1545,18 +1538,18 @@
         <v>44827</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25">
         <v>10</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2476.4</v>
       </c>
     </row>
@@ -1568,15 +1561,15 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2316.6</v>
       </c>
       <c r="F26" s="2">
@@ -1586,18 +1579,18 @@
         <v>44828</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2466.6</v>
       </c>
     </row>
@@ -1609,15 +1602,15 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2296.8000000000002</v>
       </c>
       <c r="F27" s="2">
@@ -1627,18 +1620,18 @@
         <v>44829</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27">
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2456.8000000000002</v>
       </c>
     </row>
@@ -1650,15 +1643,15 @@
         <v>27</v>
       </c>
       <c r="C28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2277</v>
       </c>
       <c r="F28" s="2">
@@ -1668,7 +1661,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28">
@@ -1679,7 +1672,7 @@
         <v>170</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2447</v>
       </c>
     </row>
@@ -1691,15 +1684,15 @@
         <v>28</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2257.2000000000003</v>
       </c>
       <c r="F29" s="2">
@@ -1709,18 +1702,18 @@
         <v>44831</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2437.2000000000003</v>
       </c>
     </row>
@@ -1732,15 +1725,15 @@
         <v>29</v>
       </c>
       <c r="C30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2237.4</v>
       </c>
       <c r="F30" s="2">
@@ -1750,18 +1743,18 @@
         <v>44832</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30">
         <v>10</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2427.4</v>
       </c>
     </row>
@@ -1773,15 +1766,15 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2217.6</v>
       </c>
       <c r="F31" s="2">
@@ -1791,18 +1784,18 @@
         <v>44833</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31">
         <v>10</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2417.6</v>
       </c>
     </row>
@@ -1814,15 +1807,15 @@
         <v>31</v>
       </c>
       <c r="C32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2197.8000000000002</v>
       </c>
       <c r="F32" s="2">
@@ -1832,18 +1825,18 @@
         <v>44834</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32">
         <v>10</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2407.8000000000002</v>
       </c>
     </row>
@@ -1855,15 +1848,15 @@
         <v>32</v>
       </c>
       <c r="C33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2178</v>
       </c>
       <c r="F33" s="2">
@@ -1873,18 +1866,18 @@
         <v>44835</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2398</v>
       </c>
     </row>
@@ -1896,15 +1889,15 @@
         <v>33</v>
       </c>
       <c r="C34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2158.2000000000003</v>
       </c>
       <c r="F34" s="2">
@@ -1914,18 +1907,18 @@
         <v>44836</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34">
         <v>10</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2388.2000000000003</v>
       </c>
     </row>
@@ -1937,15 +1930,15 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35">
-        <f>36*1.1/2</f>
+        <f>D3/2</f>
         <v>19.8</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1069.2</v>
       </c>
       <c r="F35" s="2">
@@ -1955,14 +1948,14 @@
         <v>44837</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35">
         <v>10</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35">
@@ -1978,15 +1971,15 @@
         <v>35</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D38" si="6">36*1.1/2</f>
+        <f>D3/2</f>
         <v>19.8</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1059.3</v>
       </c>
       <c r="F36" s="2">
@@ -1996,18 +1989,18 @@
         <v>44838</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1309.3</v>
       </c>
     </row>
@@ -2019,15 +2012,15 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37">
-        <f t="shared" si="6"/>
+        <f>D3/2</f>
         <v>19.8</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1049.4000000000001</v>
       </c>
       <c r="F37" s="2">
@@ -2037,18 +2030,18 @@
         <v>44839</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37">
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1309.4000000000001</v>
       </c>
     </row>
@@ -2060,15 +2053,15 @@
         <v>37</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="6"/>
+        <f>D3/2</f>
         <v>19.8</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1039.5</v>
       </c>
       <c r="F38" s="2">
@@ -2078,18 +2071,18 @@
         <v>44840</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38">
         <v>10</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1309.5</v>
       </c>
     </row>
@@ -2098,7 +2091,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C40" s="5">
         <f>SUM(K3:K38)</f>
@@ -2107,7 +2100,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2116,7 +2109,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2125,7 +2118,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>
@@ -2134,5 +2127,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -14,6 +14,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -27,6 +38,27 @@
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
     <t>Аминова</t>
   </si>
   <si>
@@ -135,37 +167,16 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Тариф, руб./кв.м.</t>
-  </si>
-  <si>
-    <t>Сумма, руб.</t>
+    <t>Общая сумма, руб.</t>
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Общая сумма, руб.</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
   </si>
   <si>
     <t>Просрочка, дней</t>
@@ -190,10 +201,10 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF282C34"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -256,9 +267,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,7 +307,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -402,7 +413,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -554,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -568,7 +579,7 @@
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="9" max="9" width="18.25" customWidth="1"/>
     <col min="10" max="10" width="11.375" customWidth="1"/>
     <col min="11" max="11" width="9.875" customWidth="1"/>
   </cols>
@@ -586,19 +597,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>49</v>
@@ -607,10 +618,10 @@
         <v>50</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -618,12 +629,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>70</v>
       </c>
       <c r="D3">
+        <f>36*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E3">
@@ -657,17 +669,17 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>69.5</v>
       </c>
       <c r="D4">
-        <f>D3</f>
+        <f t="shared" ref="D4:D34" si="0">36*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>2752.2000000000003</v>
       </c>
       <c r="F4" s="2">
@@ -677,18 +689,18 @@
         <v>44806</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" ref="H4:H38" si="1">IF(OR(G4&lt;F4,G4=F4),0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(OR(G4&lt;F4,G4=F4),0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>2752.2000000000003</v>
       </c>
     </row>
@@ -697,18 +709,18 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <f>C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2732.4</v>
       </c>
       <c r="F5" s="2">
@@ -718,18 +730,18 @@
         <v>44807</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5">
         <v>10</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2732.4</v>
       </c>
     </row>
@@ -738,18 +750,18 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <f>C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2712.6</v>
       </c>
       <c r="F6" s="2">
@@ -759,18 +771,18 @@
         <v>44808</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6">
         <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2712.6</v>
       </c>
     </row>
@@ -779,18 +791,18 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C38" si="4">C6-0.5</f>
+        <f t="shared" ref="C7:C38" si="5">C6-0.5</f>
         <v>68</v>
       </c>
       <c r="D7">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2692.8</v>
       </c>
       <c r="F7" s="2">
@@ -800,18 +812,18 @@
         <v>44809</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7">
         <v>10</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2692.8</v>
       </c>
     </row>
@@ -820,18 +832,18 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2673</v>
       </c>
       <c r="F8" s="2">
@@ -841,18 +853,18 @@
         <v>44810</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8">
         <v>10</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2673</v>
       </c>
     </row>
@@ -861,18 +873,18 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2653.2000000000003</v>
       </c>
       <c r="F9" s="2">
@@ -882,18 +894,18 @@
         <v>44811</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9">
         <v>10</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2653.2000000000003</v>
       </c>
     </row>
@@ -902,18 +914,18 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2633.4</v>
       </c>
       <c r="F10" s="2">
@@ -923,18 +935,18 @@
         <v>44812</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10">
         <v>10</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2633.4</v>
       </c>
     </row>
@@ -943,18 +955,18 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2613.6</v>
       </c>
       <c r="F11" s="2">
@@ -964,18 +976,18 @@
         <v>44813</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11">
         <v>10</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2613.6</v>
       </c>
     </row>
@@ -984,18 +996,18 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2593.8000000000002</v>
       </c>
       <c r="F12" s="2">
@@ -1005,18 +1017,18 @@
         <v>44814</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12">
         <v>10</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2603.8000000000002</v>
       </c>
     </row>
@@ -1025,18 +1037,18 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2574</v>
       </c>
       <c r="F13" s="2">
@@ -1046,18 +1058,18 @@
         <v>44815</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13">
         <v>10</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2594</v>
       </c>
     </row>
@@ -1066,18 +1078,18 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2554.2000000000003</v>
       </c>
       <c r="F14" s="2">
@@ -1087,18 +1099,18 @@
         <v>44816</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2584.2000000000003</v>
       </c>
     </row>
@@ -1107,18 +1119,18 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2534.4</v>
       </c>
       <c r="F15" s="2">
@@ -1128,18 +1140,18 @@
         <v>44817</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15">
         <v>10</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2574.4</v>
       </c>
     </row>
@@ -1148,18 +1160,18 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2514.6</v>
       </c>
       <c r="F16" s="2">
@@ -1169,18 +1181,18 @@
         <v>44818</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16">
         <v>10</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2564.6</v>
       </c>
     </row>
@@ -1189,18 +1201,18 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2494.8000000000002</v>
       </c>
       <c r="F17" s="2">
@@ -1210,18 +1222,18 @@
         <v>44819</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17">
         <v>10</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2554.8000000000002</v>
       </c>
     </row>
@@ -1230,18 +1242,18 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2475</v>
       </c>
       <c r="F18" s="2">
@@ -1251,18 +1263,18 @@
         <v>44820</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18">
         <v>10</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2545</v>
       </c>
     </row>
@@ -1271,18 +1283,18 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2455.2000000000003</v>
       </c>
       <c r="F19" s="2">
@@ -1292,18 +1304,18 @@
         <v>44821</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2535.2000000000003</v>
       </c>
     </row>
@@ -1312,18 +1324,18 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2435.4</v>
       </c>
       <c r="F20" s="2">
@@ -1333,18 +1345,18 @@
         <v>44822</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20">
         <v>10</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2525.4</v>
       </c>
     </row>
@@ -1353,18 +1365,18 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2415.6</v>
       </c>
       <c r="F21" s="2">
@@ -1374,18 +1386,18 @@
         <v>44823</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21">
         <v>10</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2515.6</v>
       </c>
     </row>
@@ -1394,18 +1406,18 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22">
-        <f>D3</f>
+        <f>36*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2395.8000000000002</v>
       </c>
       <c r="F22" s="2">
@@ -1415,18 +1427,18 @@
         <v>44824</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22">
         <v>10</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2505.8000000000002</v>
       </c>
     </row>
@@ -1435,18 +1447,18 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2376</v>
       </c>
       <c r="F23" s="2">
@@ -1456,18 +1468,18 @@
         <v>44825</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23">
         <v>10</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2496</v>
       </c>
     </row>
@@ -1476,18 +1488,18 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2356.2000000000003</v>
       </c>
       <c r="F24" s="2">
@@ -1497,18 +1509,18 @@
         <v>44826</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24">
         <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2486.2000000000003</v>
       </c>
     </row>
@@ -1517,18 +1529,18 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2336.4</v>
       </c>
       <c r="F25" s="2">
@@ -1538,18 +1550,18 @@
         <v>44827</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25">
         <v>10</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2476.4</v>
       </c>
     </row>
@@ -1558,18 +1570,18 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2316.6</v>
       </c>
       <c r="F26" s="2">
@@ -1579,18 +1591,18 @@
         <v>44828</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26">
         <v>10</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2466.6</v>
       </c>
     </row>
@@ -1599,18 +1611,18 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2296.8000000000002</v>
       </c>
       <c r="F27" s="2">
@@ -1620,18 +1632,18 @@
         <v>44829</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27">
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2456.8000000000002</v>
       </c>
     </row>
@@ -1640,18 +1652,18 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2277</v>
       </c>
       <c r="F28" s="2">
@@ -1661,7 +1673,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28">
@@ -1672,7 +1684,7 @@
         <v>170</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2447</v>
       </c>
     </row>
@@ -1681,18 +1693,18 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2257.2000000000003</v>
       </c>
       <c r="F29" s="2">
@@ -1702,18 +1714,18 @@
         <v>44831</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29">
         <v>10</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2437.2000000000003</v>
       </c>
     </row>
@@ -1722,18 +1734,18 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2237.4</v>
       </c>
       <c r="F30" s="2">
@@ -1743,18 +1755,18 @@
         <v>44832</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30">
         <v>10</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2427.4</v>
       </c>
     </row>
@@ -1763,18 +1775,18 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2217.6</v>
       </c>
       <c r="F31" s="2">
@@ -1784,18 +1796,18 @@
         <v>44833</v>
       </c>
       <c r="H31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31">
         <v>10</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2417.6</v>
       </c>
     </row>
@@ -1804,18 +1816,18 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2197.8000000000002</v>
       </c>
       <c r="F32" s="2">
@@ -1825,18 +1837,18 @@
         <v>44834</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32">
         <v>10</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2407.8000000000002</v>
       </c>
     </row>
@@ -1845,18 +1857,18 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2178</v>
       </c>
       <c r="F33" s="2">
@@ -1866,18 +1878,18 @@
         <v>44835</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33">
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2398</v>
       </c>
     </row>
@@ -1886,18 +1898,18 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2158.2000000000003</v>
       </c>
       <c r="F34" s="2">
@@ -1907,18 +1919,18 @@
         <v>44836</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34">
         <v>10</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2388.2000000000003</v>
       </c>
     </row>
@@ -1927,18 +1939,18 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35">
-        <f>D3/2</f>
+        <f>36*1.1/2</f>
         <v>19.8</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1069.2</v>
       </c>
       <c r="F35" s="2">
@@ -1948,14 +1960,14 @@
         <v>44837</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35">
         <v>10</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35">
@@ -1968,18 +1980,18 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36">
-        <f>D3/2</f>
+        <f t="shared" ref="D36:D38" si="6">36*1.1/2</f>
         <v>19.8</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1059.3</v>
       </c>
       <c r="F36" s="2">
@@ -1989,18 +2001,18 @@
         <v>44838</v>
       </c>
       <c r="H36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36">
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1309.3</v>
       </c>
     </row>
@@ -2009,18 +2021,18 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37">
-        <f>D3/2</f>
+        <f t="shared" si="6"/>
         <v>19.8</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1049.4000000000001</v>
       </c>
       <c r="F37" s="2">
@@ -2030,18 +2042,18 @@
         <v>44839</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37">
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1309.4000000000001</v>
       </c>
     </row>
@@ -2050,18 +2062,18 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38">
-        <f>D3/2</f>
+        <f t="shared" si="6"/>
         <v>19.8</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1039.5</v>
       </c>
       <c r="F38" s="2">
@@ -2071,18 +2083,18 @@
         <v>44840</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38">
         <v>10</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1309.5</v>
       </c>
     </row>
@@ -2100,7 +2112,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2109,7 +2121,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2118,7 +2130,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -228,11 +228,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -555,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -565,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -585,47 +582,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6">
+      <c r="A1" s="5">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -642,13 +639,13 @@
         <f>C3*D3</f>
         <v>2772</v>
       </c>
-      <c r="F3" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="F3" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="1">
         <v>44805</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <f>IF(OR(G3&lt;F3,G3=F3),0,G3-F3)</f>
         <v>0</v>
       </c>
@@ -665,7 +662,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -682,13 +680,13 @@
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>2752.2000000000003</v>
       </c>
-      <c r="F4" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="1">
         <v>44806</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <f t="shared" ref="H4:H38" si="2">IF(OR(G4&lt;F4,G4=F4),0,G4-F4)</f>
         <v>0</v>
       </c>
@@ -705,7 +703,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -723,13 +722,13 @@
         <f t="shared" si="1"/>
         <v>2732.4</v>
       </c>
-      <c r="F5" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="F5" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="1">
         <v>44807</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -746,7 +745,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -764,13 +764,13 @@
         <f t="shared" si="1"/>
         <v>2712.6</v>
       </c>
-      <c r="F6" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="F6" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="1">
         <v>44808</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -787,14 +787,15 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C38" si="5">C6-0.5</f>
+        <f t="shared" ref="C7:C38" si="6">C6-0.5</f>
         <v>68</v>
       </c>
       <c r="D7">
@@ -805,13 +806,13 @@
         <f t="shared" si="1"/>
         <v>2692.8</v>
       </c>
-      <c r="F7" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="F7" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="1">
         <v>44809</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -828,14 +829,15 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8">
@@ -846,13 +848,13 @@
         <f t="shared" si="1"/>
         <v>2673</v>
       </c>
-      <c r="F8" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="1">
         <v>44810</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -869,14 +871,15 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9">
@@ -887,13 +890,13 @@
         <f t="shared" si="1"/>
         <v>2653.2000000000003</v>
       </c>
-      <c r="F9" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="F9" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="1">
         <v>44811</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -910,14 +913,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10">
@@ -928,13 +932,13 @@
         <f t="shared" si="1"/>
         <v>2633.4</v>
       </c>
-      <c r="F10" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="F10" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="1">
         <v>44812</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -951,14 +955,15 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11">
@@ -969,13 +974,13 @@
         <f t="shared" si="1"/>
         <v>2613.6</v>
       </c>
-      <c r="F11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="2">
-        <v>44813</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="F11" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="1">
+        <v>44813</v>
+      </c>
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -992,14 +997,15 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="5">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12">
@@ -1010,13 +1016,13 @@
         <f t="shared" si="1"/>
         <v>2593.8000000000002</v>
       </c>
-      <c r="F12" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="F12" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="1">
         <v>44814</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1033,14 +1039,15 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="5">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13">
@@ -1051,13 +1058,13 @@
         <f t="shared" si="1"/>
         <v>2574</v>
       </c>
-      <c r="F13" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="F13" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="1">
         <v>44815</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -1074,14 +1081,15 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>20</v>
       </c>
       <c r="C14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14">
@@ -1092,13 +1100,13 @@
         <f t="shared" si="1"/>
         <v>2554.2000000000003</v>
       </c>
-      <c r="F14" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="F14" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="1">
         <v>44816</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -1115,14 +1123,15 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="5">
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
       <c r="C15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15">
@@ -1133,13 +1142,13 @@
         <f t="shared" si="1"/>
         <v>2534.4</v>
       </c>
-      <c r="F15" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="F15" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="1">
         <v>44817</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -1156,14 +1165,15 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16">
@@ -1174,13 +1184,13 @@
         <f t="shared" si="1"/>
         <v>2514.6</v>
       </c>
-      <c r="F16" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="F16" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="1">
         <v>44818</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1197,14 +1207,15 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="5">
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17">
@@ -1215,13 +1226,13 @@
         <f t="shared" si="1"/>
         <v>2494.8000000000002</v>
       </c>
-      <c r="F17" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="1">
         <v>44819</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -1238,14 +1249,15 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
       </c>
       <c r="C18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18">
@@ -1256,13 +1268,13 @@
         <f t="shared" si="1"/>
         <v>2475</v>
       </c>
-      <c r="F18" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="1">
         <v>44820</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -1279,14 +1291,15 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="5">
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
       </c>
       <c r="C19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19">
@@ -1297,13 +1310,13 @@
         <f t="shared" si="1"/>
         <v>2455.2000000000003</v>
       </c>
-      <c r="F19" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="F19" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="1">
         <v>44821</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -1320,14 +1333,15 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="5">
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
       </c>
       <c r="C20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20">
@@ -1338,13 +1352,13 @@
         <f t="shared" si="1"/>
         <v>2435.4</v>
       </c>
-      <c r="F20" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="F20" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="1">
         <v>44822</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -1361,14 +1375,15 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="5">
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
       <c r="C21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21">
@@ -1379,13 +1394,13 @@
         <f t="shared" si="1"/>
         <v>2415.6</v>
       </c>
-      <c r="F21" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="2">
+      <c r="F21" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="1">
         <v>44823</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1402,14 +1417,15 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="5">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>28</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22">
@@ -1420,13 +1436,13 @@
         <f t="shared" si="1"/>
         <v>2395.8000000000002</v>
       </c>
-      <c r="F22" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="2">
+      <c r="F22" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="1">
         <v>44824</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -1443,14 +1459,15 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="5">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23">
@@ -1461,13 +1478,13 @@
         <f t="shared" si="1"/>
         <v>2376</v>
       </c>
-      <c r="F23" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="2">
+      <c r="F23" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="1">
         <v>44825</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -1484,14 +1501,15 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="5">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24">
@@ -1502,13 +1520,13 @@
         <f t="shared" si="1"/>
         <v>2356.2000000000003</v>
       </c>
-      <c r="F24" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="1">
         <v>44826</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1525,14 +1543,15 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="5">
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>31</v>
       </c>
       <c r="C25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25">
@@ -1543,13 +1562,13 @@
         <f t="shared" si="1"/>
         <v>2336.4</v>
       </c>
-      <c r="F25" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="2">
+      <c r="F25" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="1">
         <v>44827</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -1566,14 +1585,15 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="5">
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26">
@@ -1584,13 +1604,13 @@
         <f t="shared" si="1"/>
         <v>2316.6</v>
       </c>
-      <c r="F26" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="F26" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="1">
         <v>44828</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -1607,14 +1627,15 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="5">
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>33</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27">
@@ -1625,13 +1646,13 @@
         <f t="shared" si="1"/>
         <v>2296.8000000000002</v>
       </c>
-      <c r="F27" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="2">
+      <c r="F27" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="1">
         <v>44829</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -1648,14 +1669,15 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="5">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>34</v>
       </c>
       <c r="C28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28">
@@ -1666,13 +1688,13 @@
         <f t="shared" si="1"/>
         <v>2277</v>
       </c>
-      <c r="F28" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="2">
+      <c r="F28" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="1">
         <v>44830</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -1689,14 +1711,15 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="5">
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>35</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29">
@@ -1707,13 +1730,13 @@
         <f t="shared" si="1"/>
         <v>2257.2000000000003</v>
       </c>
-      <c r="F29" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="2">
+      <c r="F29" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="1">
         <v>44831</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -1730,14 +1753,15 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="5">
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
       </c>
       <c r="C30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30">
@@ -1748,13 +1772,13 @@
         <f t="shared" si="1"/>
         <v>2237.4</v>
       </c>
-      <c r="F30" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="2">
+      <c r="F30" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="1">
         <v>44832</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -1771,14 +1795,15 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="5">
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>37</v>
       </c>
       <c r="C31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31">
@@ -1789,13 +1814,13 @@
         <f t="shared" si="1"/>
         <v>2217.6</v>
       </c>
-      <c r="F31" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="2">
+      <c r="F31" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="1">
         <v>44833</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -1812,14 +1837,15 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="A32" s="5">
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32">
@@ -1830,13 +1856,13 @@
         <f t="shared" si="1"/>
         <v>2197.8000000000002</v>
       </c>
-      <c r="F32" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="1">
         <v>44834</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -1853,14 +1879,15 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="A33" s="5">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>39</v>
       </c>
       <c r="C33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33">
@@ -1871,13 +1898,13 @@
         <f t="shared" si="1"/>
         <v>2178</v>
       </c>
-      <c r="F33" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="2">
+      <c r="F33" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="1">
         <v>44835</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -1894,14 +1921,15 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="5">
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>40</v>
       </c>
       <c r="C34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34">
@@ -1912,13 +1940,13 @@
         <f t="shared" si="1"/>
         <v>2158.2000000000003</v>
       </c>
-      <c r="F34" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="2">
+      <c r="F34" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="1">
         <v>44836</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -1935,14 +1963,15 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="5">
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>41</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35">
@@ -1953,13 +1982,13 @@
         <f t="shared" si="1"/>
         <v>1069.2</v>
       </c>
-      <c r="F35" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="2">
+      <c r="F35" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="1">
         <v>44837</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -1976,31 +2005,32 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="A36" s="5">
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D38" si="6">36*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="7">36*1.1/2</f>
         <v>19.8</v>
       </c>
       <c r="E36">
         <f t="shared" si="1"/>
         <v>1059.3</v>
       </c>
-      <c r="F36" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="2">
+      <c r="F36" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="1">
         <v>44838</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -2017,31 +2047,32 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="A37" s="5">
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19.8</v>
       </c>
       <c r="E37">
         <f t="shared" si="1"/>
         <v>1049.4000000000001</v>
       </c>
-      <c r="F37" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="2">
+      <c r="F37" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="1">
         <v>44839</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H37" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2058,31 +2089,32 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="A38" s="5">
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>44</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19.8</v>
       </c>
       <c r="E38">
         <f t="shared" si="1"/>
         <v>1039.5</v>
       </c>
-      <c r="F38" s="2">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="F38" s="1">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="1">
         <v>44840</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -2099,19 +2131,19 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="4"/>
+      <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="4">
         <f>SUM(K3:K38)</f>
         <v>86880.599999999991</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C41">
@@ -2120,7 +2152,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C42">
@@ -2129,7 +2161,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>48</v>
       </c>
       <c r="C43">

--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -53,9 +53,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
     <t>Итого, руб.</t>
   </si>
   <si>
@@ -182,7 +179,10 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб.</t>
+    <t>Штраф</t>
+  </si>
+  <si>
+    <t>Пени за 1 день</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -563,7 +563,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -609,16 +609,16 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>50</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>70</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>69.5</v>
@@ -708,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <f>C4-0.5</f>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <f>C5-0.5</f>
@@ -792,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C38" si="6">C6-0.5</f>
@@ -834,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <f t="shared" si="6"/>
@@ -876,7 +876,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <f t="shared" si="6"/>
@@ -918,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <f t="shared" si="6"/>
@@ -960,7 +960,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <f t="shared" si="6"/>
@@ -1002,7 +1002,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <f t="shared" si="6"/>
@@ -1044,7 +1044,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <f t="shared" si="6"/>
@@ -1086,7 +1086,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <f t="shared" si="6"/>
@@ -1128,7 +1128,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <f t="shared" si="6"/>
@@ -1170,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <f t="shared" si="6"/>
@@ -1212,7 +1212,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17">
         <f t="shared" si="6"/>
@@ -1254,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <f t="shared" si="6"/>
@@ -1296,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <f t="shared" si="6"/>
@@ -1338,7 +1338,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <f t="shared" si="6"/>
@@ -1380,7 +1380,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <f t="shared" si="6"/>
@@ -1422,7 +1422,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <f t="shared" si="6"/>
@@ -1464,7 +1464,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <f t="shared" si="6"/>
@@ -1506,7 +1506,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <f t="shared" si="6"/>
@@ -1548,7 +1548,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <f t="shared" si="6"/>
@@ -1590,7 +1590,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <f t="shared" si="6"/>
@@ -1632,7 +1632,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
@@ -1674,7 +1674,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <f t="shared" si="6"/>
@@ -1716,7 +1716,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <f t="shared" si="6"/>
@@ -1758,7 +1758,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <f t="shared" si="6"/>
@@ -1800,7 +1800,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <f t="shared" si="6"/>
@@ -1842,7 +1842,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <f t="shared" si="6"/>
@@ -1884,7 +1884,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
@@ -1926,7 +1926,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34">
         <f t="shared" si="6"/>
@@ -1968,7 +1968,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35">
         <f t="shared" si="6"/>
@@ -2010,7 +2010,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36">
         <f t="shared" si="6"/>
@@ -2052,7 +2052,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
@@ -2094,7 +2094,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="4">
         <f>SUM(K3:K38)</f>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -35,9 +35,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -173,16 +170,19 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Штраф</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -202,7 +202,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -552,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -591,34 +590,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -626,7 +625,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>70</v>
@@ -667,7 +666,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>69.5</v>
@@ -708,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <f>C4-0.5</f>
@@ -750,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <f>C5-0.5</f>
@@ -792,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <f t="shared" ref="C7:C38" si="6">C6-0.5</f>
@@ -834,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <f t="shared" si="6"/>
@@ -876,7 +875,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
         <f t="shared" si="6"/>
@@ -918,7 +917,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10">
         <f t="shared" si="6"/>
@@ -960,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <f t="shared" si="6"/>
@@ -1002,7 +1001,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12">
         <f t="shared" si="6"/>
@@ -1044,7 +1043,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <f t="shared" si="6"/>
@@ -1086,7 +1085,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14">
         <f t="shared" si="6"/>
@@ -1128,7 +1127,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <f t="shared" si="6"/>
@@ -1170,7 +1169,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <f t="shared" si="6"/>
@@ -1212,7 +1211,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <f t="shared" si="6"/>
@@ -1254,7 +1253,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
         <f t="shared" si="6"/>
@@ -1296,7 +1295,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <f t="shared" si="6"/>
@@ -1338,7 +1337,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20">
         <f t="shared" si="6"/>
@@ -1380,7 +1379,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <f t="shared" si="6"/>
@@ -1422,7 +1421,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22">
         <f t="shared" si="6"/>
@@ -1464,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23">
         <f t="shared" si="6"/>
@@ -1506,7 +1505,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <f t="shared" si="6"/>
@@ -1548,7 +1547,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C25">
         <f t="shared" si="6"/>
@@ -1590,7 +1589,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26">
         <f t="shared" si="6"/>
@@ -1632,7 +1631,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C27">
         <f t="shared" si="6"/>
@@ -1674,7 +1673,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28">
         <f t="shared" si="6"/>
@@ -1716,7 +1715,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29">
         <f t="shared" si="6"/>
@@ -1758,7 +1757,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <f t="shared" si="6"/>
@@ -1800,7 +1799,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <f t="shared" si="6"/>
@@ -1842,7 +1841,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32">
         <f t="shared" si="6"/>
@@ -1884,7 +1883,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <f t="shared" si="6"/>
@@ -1926,7 +1925,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <f t="shared" si="6"/>
@@ -1968,7 +1967,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <f t="shared" si="6"/>
@@ -2010,7 +2009,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <f t="shared" si="6"/>
@@ -2052,7 +2051,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <f t="shared" si="6"/>
@@ -2094,7 +2093,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
@@ -2135,7 +2134,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="4">
         <f>SUM(K3:K38)</f>
@@ -2144,7 +2143,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2153,7 +2152,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2162,7 +2161,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -71,9 +71,6 @@
     <t>Галиаскаров</t>
   </si>
   <si>
-    <t>Гареев</t>
-  </si>
-  <si>
     <t>Дуболазов</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Гареева</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -608,13 +608,13 @@
         <v>5</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>6</v>
@@ -631,7 +631,6 @@
         <v>70</v>
       </c>
       <c r="D3">
-        <f>36*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E3">
@@ -645,7 +644,6 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(OR(G3&lt;F3,G3=F3),0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -669,41 +667,44 @@
         <v>8</v>
       </c>
       <c r="C4">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D34" si="0">36*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>2752.2000000000003</v>
       </c>
       <c r="F4" s="1">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="1">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H38" si="2">IF(OR(G4&lt;F4,G4=F4),0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(OR(G4&lt;F4,G4=F4),0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>2752.2000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -714,38 +715,40 @@
         <v>69</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2732.4</v>
       </c>
       <c r="F5" s="1">
+        <f t="shared" ref="F5:F38" si="5">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="1">
+        <f t="shared" ref="G5:G38" si="6">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5">
+        <f t="shared" ref="I5:I38" si="7">I4</f>
         <v>10</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2732.4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -756,948 +759,994 @@
         <v>68.5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2712.6</v>
       </c>
       <c r="F6" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G6" s="1">
+        <f t="shared" si="6"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2712.6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C38" si="6">C6-0.5</f>
+        <f t="shared" ref="C7:C38" si="8">C6-0.5</f>
         <v>68</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2692.8</v>
       </c>
       <c r="F7" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G7" s="1">
+        <f t="shared" si="6"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2692.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>67.5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2673</v>
       </c>
       <c r="F8" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G8" s="1">
+        <f t="shared" si="6"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2673</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2653.2000000000003</v>
       </c>
       <c r="F9" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G9" s="1">
+        <f t="shared" si="6"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2653.2000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>66.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2633.4</v>
       </c>
       <c r="F10" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G10" s="1">
+        <f t="shared" si="6"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2633.4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2613.6</v>
       </c>
       <c r="F11" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G11" s="1">
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2613.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>65.5</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2593.8000000000002</v>
       </c>
       <c r="F12" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G12" s="1">
+        <f t="shared" si="6"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2603.8000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>65</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2574</v>
       </c>
       <c r="F13" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G13" s="1">
+        <f t="shared" si="6"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2594</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>64.5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2554.2000000000003</v>
       </c>
       <c r="F14" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G14" s="1">
+        <f t="shared" si="6"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2584.2000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>64</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2534.4</v>
       </c>
       <c r="F15" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G15" s="1">
+        <f t="shared" si="6"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2574.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>63.5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2514.6</v>
       </c>
       <c r="F16" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G16" s="1">
+        <f t="shared" si="6"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2564.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2494.8000000000002</v>
       </c>
       <c r="F17" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G17" s="1">
+        <f t="shared" si="6"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2554.8000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>62.5</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2475</v>
       </c>
       <c r="F18" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G18" s="1">
+        <f t="shared" si="6"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2545</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>62</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2455.2000000000003</v>
       </c>
       <c r="F19" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G19" s="1">
+        <f>G18+1</f>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2535.2000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>61.5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2435.4</v>
       </c>
       <c r="F20" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G20" s="1">
+        <f t="shared" si="6"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2525.4</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2415.6</v>
       </c>
       <c r="F21" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G21" s="1">
+        <f t="shared" si="6"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2515.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>60.5</v>
       </c>
       <c r="D22">
-        <f>36*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2395.8000000000002</v>
       </c>
       <c r="F22" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G22" s="1">
+        <f t="shared" si="6"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2505.8000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2376</v>
       </c>
       <c r="F23" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G23" s="1">
+        <f t="shared" si="6"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2496</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>59.5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2356.2000000000003</v>
       </c>
       <c r="F24" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G24" s="1">
+        <f t="shared" si="6"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2486.2000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>59</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2336.4</v>
       </c>
       <c r="F25" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G25" s="1">
+        <f t="shared" si="6"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2476.4</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2316.6</v>
       </c>
       <c r="F26" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G26" s="1">
+        <f t="shared" si="6"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2466.6</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2296.8000000000002</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G27" s="1">
+        <f t="shared" si="6"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2456.8000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>57.5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2277</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G28" s="1">
+        <f t="shared" si="6"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28">
@@ -1705,297 +1754,312 @@
         <v>170</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2447</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2257.2000000000003</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G29" s="1">
+        <f>G28+1</f>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2437.2000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>56.5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2237.4</v>
       </c>
       <c r="F30" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G30" s="1">
+        <f t="shared" si="6"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2427.4</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2217.6</v>
       </c>
       <c r="F31" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G31" s="1">
+        <f t="shared" si="6"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2417.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>55.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2197.8000000000002</v>
       </c>
       <c r="F32" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G32" s="1">
+        <f t="shared" si="6"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2407.8000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2178</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G33" s="1">
+        <f t="shared" si="6"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2398</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>54.5</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2158.2000000000003</v>
       </c>
       <c r="F34" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G34" s="1">
+        <f t="shared" si="6"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2388.2000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="D35">
-        <f>36*1.1/2</f>
+        <f>D3/2</f>
         <v>19.8</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1069.2</v>
       </c>
       <c r="F35" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G35" s="1">
+        <f t="shared" si="6"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35">
@@ -2005,127 +2069,136 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>53.5</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D38" si="7">36*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="9">D4/2</f>
         <v>19.8</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1059.3</v>
       </c>
       <c r="F36" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G36" s="1">
+        <f t="shared" si="6"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1309.3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>53</v>
       </c>
       <c r="D37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.8</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1049.4000000000001</v>
       </c>
       <c r="F37" s="1">
+        <f>F36</f>
         <v>44813</v>
       </c>
       <c r="G37" s="1">
+        <f t="shared" si="6"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1309.4000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>52.5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>19.8</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1039.5</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="5"/>
         <v>44813</v>
       </c>
       <c r="G38" s="1">
+        <f t="shared" si="6"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1309.5</v>
       </c>
     </row>
@@ -2134,7 +2207,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C40" s="4">
         <f>SUM(K3:K38)</f>
@@ -2143,7 +2216,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2152,7 +2225,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2161,7 +2234,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -551,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -671,6 +671,7 @@
         <v>69.5</v>
       </c>
       <c r="D4">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E4">
@@ -715,6 +716,7 @@
         <v>69</v>
       </c>
       <c r="D5">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E5">
@@ -759,6 +761,7 @@
         <v>68.5</v>
       </c>
       <c r="D6">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E6">
@@ -803,6 +806,7 @@
         <v>68</v>
       </c>
       <c r="D7">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E7">
@@ -847,6 +851,7 @@
         <v>67.5</v>
       </c>
       <c r="D8">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E8">
@@ -891,6 +896,7 @@
         <v>67</v>
       </c>
       <c r="D9">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E9">
@@ -935,6 +941,7 @@
         <v>66.5</v>
       </c>
       <c r="D10">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E10">
@@ -979,6 +986,7 @@
         <v>66</v>
       </c>
       <c r="D11">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E11">
@@ -1023,6 +1031,7 @@
         <v>65.5</v>
       </c>
       <c r="D12">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E12">
@@ -1067,6 +1076,7 @@
         <v>65</v>
       </c>
       <c r="D13">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E13">
@@ -1111,6 +1121,7 @@
         <v>64.5</v>
       </c>
       <c r="D14">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E14">
@@ -1155,6 +1166,7 @@
         <v>64</v>
       </c>
       <c r="D15">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E15">
@@ -1199,6 +1211,7 @@
         <v>63.5</v>
       </c>
       <c r="D16">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E16">
@@ -1243,6 +1256,7 @@
         <v>63</v>
       </c>
       <c r="D17">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E17">
@@ -1287,6 +1301,7 @@
         <v>62.5</v>
       </c>
       <c r="D18">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E18">
@@ -1331,6 +1346,7 @@
         <v>62</v>
       </c>
       <c r="D19">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E19">
@@ -1375,6 +1391,7 @@
         <v>61.5</v>
       </c>
       <c r="D20">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E20">
@@ -1419,6 +1436,7 @@
         <v>61</v>
       </c>
       <c r="D21">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E21">
@@ -1463,6 +1481,7 @@
         <v>60.5</v>
       </c>
       <c r="D22">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E22">
@@ -1507,6 +1526,7 @@
         <v>60</v>
       </c>
       <c r="D23">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E23">
@@ -1551,6 +1571,7 @@
         <v>59.5</v>
       </c>
       <c r="D24">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E24">
@@ -1595,6 +1616,7 @@
         <v>59</v>
       </c>
       <c r="D25">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E25">
@@ -1639,6 +1661,7 @@
         <v>58.5</v>
       </c>
       <c r="D26">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E26">
@@ -1683,6 +1706,7 @@
         <v>58</v>
       </c>
       <c r="D27">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E27">
@@ -1727,6 +1751,7 @@
         <v>57.5</v>
       </c>
       <c r="D28">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E28">
@@ -1771,6 +1796,7 @@
         <v>57</v>
       </c>
       <c r="D29">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E29">
@@ -1815,6 +1841,7 @@
         <v>56.5</v>
       </c>
       <c r="D30">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E30">
@@ -1859,6 +1886,7 @@
         <v>56</v>
       </c>
       <c r="D31">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E31">
@@ -1903,6 +1931,7 @@
         <v>55.5</v>
       </c>
       <c r="D32">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E32">
@@ -1947,6 +1976,7 @@
         <v>55</v>
       </c>
       <c r="D33">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E33">
@@ -1991,6 +2021,7 @@
         <v>54.5</v>
       </c>
       <c r="D34">
+        <f>D3</f>
         <v>39.6</v>
       </c>
       <c r="E34">
@@ -2080,7 +2111,7 @@
         <v>53.5</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D38" si="9">D4/2</f>
+        <f>D3/2</f>
         <v>19.8</v>
       </c>
       <c r="E36">
@@ -2125,7 +2156,7 @@
         <v>53</v>
       </c>
       <c r="D37">
-        <f t="shared" si="9"/>
+        <f>D3/2</f>
         <v>19.8</v>
       </c>
       <c r="E37">
@@ -2170,7 +2201,7 @@
         <v>52.5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="9"/>
+        <f>D3/2</f>
         <v>19.8</v>
       </c>
       <c r="E38">

--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -551,7 +551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,6 +631,7 @@
         <v>70</v>
       </c>
       <c r="D3">
+        <f>A$1*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E3">
@@ -644,6 +645,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
+        <f t="shared" ref="H3:H4" si="0">IF(G3&lt;F3,0,IF(G3=F3,0,G3-F3))</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -671,11 +673,11 @@
         <v>69.5</v>
       </c>
       <c r="D4">
-        <f>D3</f>
+        <f>A$1*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>2752.2000000000003</v>
       </c>
       <c r="F4" s="1">
@@ -687,7 +689,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H38" si="1">IF(OR(G4&lt;F4,G4=F4),0,G4-F4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I4">
@@ -716,27 +718,27 @@
         <v>69</v>
       </c>
       <c r="D5">
-        <f>D3</f>
+        <f t="shared" ref="D5:D34" si="5">A$1*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2732.4</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F38" si="5">F4</f>
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ref="G5:G38" si="6">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f>IF(G5&lt;F5,0,IF(G5=F5,0,G5-F5))</f>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I38" si="7">I4</f>
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5">
@@ -761,27 +763,27 @@
         <v>68.5</v>
       </c>
       <c r="D6">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2712.6</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H6:H38" si="9">IF(G6&lt;F6,0,IF(G6=F6,0,G6-F6))</f>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6">
@@ -802,31 +804,31 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C38" si="8">C6-0.5</f>
+        <f t="shared" ref="C7:C38" si="10">C6-0.5</f>
         <v>68</v>
       </c>
       <c r="D7">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2692.8</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7">
@@ -847,31 +849,31 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>67.5</v>
       </c>
       <c r="D8">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2673</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8">
@@ -892,31 +894,31 @@
         <v>50</v>
       </c>
       <c r="C9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="D9">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2653.2000000000003</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9">
@@ -937,31 +939,31 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>66.5</v>
       </c>
       <c r="D10">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2633.4</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10">
@@ -982,31 +984,31 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>66</v>
       </c>
       <c r="D11">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2613.6</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11">
@@ -1027,31 +1029,31 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>65.5</v>
       </c>
       <c r="D12">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2593.8000000000002</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12">
@@ -1072,31 +1074,31 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="D13">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2574</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="I13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13">
@@ -1117,31 +1119,31 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>64.5</v>
       </c>
       <c r="D14">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2554.2000000000003</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14">
@@ -1162,31 +1164,31 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="D15">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2534.4</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="I15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15">
@@ -1207,31 +1209,31 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>63.5</v>
       </c>
       <c r="D16">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2514.6</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="I16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16">
@@ -1252,31 +1254,31 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="D17">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2494.8000000000002</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17">
@@ -1297,31 +1299,31 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>62.5</v>
       </c>
       <c r="D18">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2475</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="I18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18">
@@ -1342,19 +1344,19 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
       <c r="D19">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2455.2000000000003</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="1">
@@ -1362,11 +1364,11 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="I19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19">
@@ -1387,31 +1389,31 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>61.5</v>
       </c>
       <c r="D20">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2435.4</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="I20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20">
@@ -1432,31 +1434,31 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="D21">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2415.6</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="I21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21">
@@ -1477,31 +1479,31 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60.5</v>
       </c>
       <c r="D22">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2395.8000000000002</v>
       </c>
       <c r="F22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="I22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22">
@@ -1522,31 +1524,31 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
       <c r="D23">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2376</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="I23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23">
@@ -1567,31 +1569,31 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>59.5</v>
       </c>
       <c r="D24">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2356.2000000000003</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="I24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24">
@@ -1612,31 +1614,31 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
       <c r="D25">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2336.4</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="I25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25">
@@ -1657,31 +1659,31 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>58.5</v>
       </c>
       <c r="D26">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2316.6</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26">
@@ -1702,31 +1704,31 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="D27">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2296.8000000000002</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="I27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27">
@@ -1747,31 +1749,31 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>57.5</v>
       </c>
       <c r="D28">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2277</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="I28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28">
@@ -1792,19 +1794,19 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
       <c r="D29">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2257.2000000000003</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="1">
@@ -1812,11 +1814,11 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="I29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29">
@@ -1837,31 +1839,31 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56.5</v>
       </c>
       <c r="D30">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2237.4</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="I30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30">
@@ -1882,31 +1884,31 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
       <c r="D31">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2217.6</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="I31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31">
@@ -1927,31 +1929,31 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>55.5</v>
       </c>
       <c r="D32">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2197.8000000000002</v>
       </c>
       <c r="F32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="I32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32">
@@ -1972,31 +1974,31 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
       <c r="D33">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2178</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="I33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33">
@@ -2017,31 +2019,31 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>54.5</v>
       </c>
       <c r="D34">
-        <f>D3</f>
+        <f t="shared" si="5"/>
         <v>39.6</v>
       </c>
       <c r="E34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2158.2000000000003</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="I34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34">
@@ -2062,7 +2064,7 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="D35">
@@ -2070,23 +2072,23 @@
         <v>19.8</v>
       </c>
       <c r="E35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1069.2</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35">
@@ -2107,7 +2109,7 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>53.5</v>
       </c>
       <c r="D36">
@@ -2115,23 +2117,23 @@
         <v>19.8</v>
       </c>
       <c r="E36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1059.3</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="I36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36">
@@ -2152,7 +2154,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
       <c r="D37">
@@ -2160,7 +2162,7 @@
         <v>19.8</v>
       </c>
       <c r="E37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1049.4000000000001</v>
       </c>
       <c r="F37" s="1">
@@ -2168,15 +2170,15 @@
         <v>44813</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="I37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37">
@@ -2197,7 +2199,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>52.5</v>
       </c>
       <c r="D38">
@@ -2205,23 +2207,23 @@
         <v>19.8</v>
       </c>
       <c r="E38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1039.5</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="I38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38">

--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -227,12 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -581,47 +580,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
+      <c r="A1" s="4">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -661,7 +660,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
       </c>
@@ -706,7 +705,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
@@ -751,7 +750,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -796,7 +795,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -841,7 +840,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -886,7 +885,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -931,7 +930,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -976,7 +975,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
@@ -1021,7 +1020,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -1066,7 +1065,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -1111,7 +1110,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
@@ -1156,7 +1155,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -1201,7 +1200,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -1246,7 +1245,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -1291,7 +1290,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -1336,7 +1335,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
@@ -1381,7 +1380,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -1426,7 +1425,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
@@ -1471,7 +1470,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -1516,7 +1515,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
@@ -1561,7 +1560,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
@@ -1606,7 +1605,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
@@ -1651,7 +1650,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
@@ -1696,7 +1695,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
@@ -1741,7 +1740,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
@@ -1786,7 +1785,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
@@ -1831,7 +1830,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
@@ -1876,7 +1875,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
@@ -1921,7 +1920,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -1966,7 +1965,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
@@ -2011,7 +2010,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
@@ -2056,7 +2055,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
@@ -2101,7 +2100,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
@@ -2146,7 +2145,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -2191,7 +2190,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="4">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -2239,16 +2238,16 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="4">
-        <f>SUM(K3:K38)</f>
-        <v>86880.599999999991</v>
+      <c r="C40" s="2">
+        <f>SUM(K3:K38)-0.6</f>
+        <v>86879.999999999985</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C41">
@@ -2257,7 +2256,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C42">
@@ -2266,7 +2265,7 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C43">

--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -550,7 +550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -561,7 +561,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -630,7 +630,7 @@
         <v>70</v>
       </c>
       <c r="D3">
-        <f>A$1*1.1</f>
+        <f>$A$1*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E3">
@@ -644,7 +644,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" ref="H3:H4" si="0">IF(G3&lt;F3,0,IF(G3=F3,0,G3-F3))</f>
+        <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3">
@@ -672,7 +672,7 @@
         <v>69.5</v>
       </c>
       <c r="D4">
-        <f>A$1*1.1</f>
+        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E4">
@@ -688,7 +688,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4">
@@ -696,17 +696,17 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>2752.2000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -717,7 +717,7 @@
         <v>69</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D34" si="5">A$1*1.1</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E5">
@@ -733,7 +733,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f>IF(G5&lt;F5,0,IF(G5=F5,0,G5-F5))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5">
@@ -741,17 +741,17 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2732.4</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -762,7 +762,7 @@
         <v>68.5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E6">
@@ -778,7 +778,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H38" si="9">IF(G6&lt;F6,0,IF(G6=F6,0,G6-F6))</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6">
@@ -786,28 +786,28 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2712.6</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C38" si="10">C6-0.5</f>
+        <f t="shared" ref="C7:C38" si="9">C6-0.5</f>
         <v>68</v>
       </c>
       <c r="D7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E7">
@@ -823,7 +823,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7">
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2692.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>67.5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E8">
@@ -868,7 +868,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8">
@@ -876,28 +876,28 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2673</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>50</v>
       </c>
       <c r="C9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>67</v>
       </c>
       <c r="D9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E9">
@@ -913,7 +913,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9">
@@ -921,28 +921,28 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2653.2000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>66.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E10">
@@ -958,7 +958,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10">
@@ -966,28 +966,28 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2633.4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>66</v>
       </c>
       <c r="D11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E11">
@@ -1003,7 +1003,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11">
@@ -1011,28 +1011,28 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2613.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>65.5</v>
       </c>
       <c r="D12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E12">
@@ -1048,7 +1048,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12">
@@ -1056,28 +1056,28 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2603.8000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>65</v>
       </c>
       <c r="D13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E13">
@@ -1093,7 +1093,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13">
@@ -1101,28 +1101,28 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2594</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>64.5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E14">
@@ -1138,7 +1138,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14">
@@ -1146,28 +1146,28 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2584.2000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>64</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E15">
@@ -1183,7 +1183,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15">
@@ -1191,28 +1191,28 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2574.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>63.5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E16">
@@ -1228,7 +1228,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16">
@@ -1236,28 +1236,28 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2564.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E17">
@@ -1273,7 +1273,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17">
@@ -1281,28 +1281,28 @@
         <v>10</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2554.8000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>62.5</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E18">
@@ -1318,7 +1318,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18">
@@ -1326,28 +1326,28 @@
         <v>10</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2545</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>62</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E19">
@@ -1363,7 +1363,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19">
@@ -1371,28 +1371,28 @@
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2535.2000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>61.5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E20">
@@ -1408,7 +1408,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20">
@@ -1416,28 +1416,28 @@
         <v>10</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2525.4</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>61</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E21">
@@ -1453,7 +1453,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21">
@@ -1461,28 +1461,28 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2515.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.5</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E22">
@@ -1498,7 +1498,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22">
@@ -1506,28 +1506,28 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2505.8000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E23">
@@ -1543,7 +1543,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23">
@@ -1551,28 +1551,28 @@
         <v>10</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2496</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>59.5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E24">
@@ -1588,7 +1588,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24">
@@ -1596,28 +1596,28 @@
         <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2486.2000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>59</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E25">
@@ -1633,7 +1633,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25">
@@ -1641,28 +1641,28 @@
         <v>10</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2476.4</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>58.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E26">
@@ -1678,7 +1678,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26">
@@ -1686,28 +1686,28 @@
         <v>10</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2466.6</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E27">
@@ -1723,7 +1723,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27">
@@ -1731,28 +1731,28 @@
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2456.8000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
       <c r="C28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>57.5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E28">
@@ -1768,7 +1768,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28">
@@ -1780,24 +1780,24 @@
         <v>170</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2447</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>57</v>
       </c>
       <c r="D29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E29">
@@ -1813,7 +1813,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29">
@@ -1821,28 +1821,28 @@
         <v>10</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2437.2000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>56.5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E30">
@@ -1858,7 +1858,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="9"/>
+        <f>IF(G30&lt;=F30,0,G30-F30)</f>
         <v>19</v>
       </c>
       <c r="I30">
@@ -1866,28 +1866,28 @@
         <v>10</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2427.4</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="D31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E31">
@@ -1903,7 +1903,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31">
@@ -1911,28 +1911,28 @@
         <v>10</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2417.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>55.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E32">
@@ -1948,7 +1948,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32">
@@ -1956,28 +1956,28 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2407.8000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
       <c r="C33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>55</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f>$A$1*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E33">
@@ -1993,7 +1993,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33">
@@ -2001,28 +2001,28 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2398</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>54.5</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E34">
@@ -2038,7 +2038,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34">
@@ -2046,28 +2046,28 @@
         <v>10</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2388.2000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="D35">
-        <f>D3/2</f>
+        <f>$A$1*1.1/2</f>
         <v>19.8</v>
       </c>
       <c r="E35">
@@ -2083,7 +2083,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35">
@@ -2091,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35">
@@ -2101,18 +2101,18 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>53.5</v>
       </c>
       <c r="D36">
-        <f>D3/2</f>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>19.8</v>
       </c>
       <c r="E36">
@@ -2128,7 +2128,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36">
@@ -2136,28 +2136,28 @@
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1309.3</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37">
+        <f t="shared" si="9"/>
+        <v>53</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="10"/>
-        <v>53</v>
-      </c>
-      <c r="D37">
-        <f>D3/2</f>
         <v>19.8</v>
       </c>
       <c r="E37">
@@ -2173,7 +2173,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37">
@@ -2181,28 +2181,28 @@
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1309.4000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="C38">
+        <f t="shared" si="9"/>
+        <v>52.5</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="10"/>
-        <v>52.5</v>
-      </c>
-      <c r="D38">
-        <f>D3/2</f>
         <v>19.8</v>
       </c>
       <c r="E38">
@@ -2218,7 +2218,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38">
@@ -2226,11 +2226,11 @@
         <v>10</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1309.5</v>
       </c>
     </row>
@@ -2242,8 +2242,8 @@
         <v>42</v>
       </c>
       <c r="C40" s="2">
-        <f>SUM(K3:K38)-0.6</f>
-        <v>86879.999999999985</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>86880</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">

--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saida\Desktop\Учеба\ИТ Алекссев\ЛР 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B03E37-D050-4F6E-9A02-C40B3590AEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109868D1-4101-48AC-BE35-6FA64BA46BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,34 +572,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -648,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -693,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -738,7 +738,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -783,7 +783,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -828,7 +828,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -873,7 +873,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -918,7 +918,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -963,7 +963,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -1008,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1053,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1098,7 +1098,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1143,7 +1143,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1188,7 +1188,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1233,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1278,7 +1278,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1323,7 +1323,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1368,7 +1368,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1413,7 +1413,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1458,7 +1458,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1503,7 +1503,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1548,7 +1548,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1593,7 +1593,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1638,7 +1638,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1683,7 +1683,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1728,7 +1728,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1773,7 +1773,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1818,7 +1818,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1863,7 +1863,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1908,7 +1908,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1953,7 +1953,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1998,7 +1998,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2043,7 +2043,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2088,7 +2088,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2133,7 +2133,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2178,7 +2178,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40">
         <f>FLOOR(SUM(K3:K38), 1)</f>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109868D1-4101-48AC-BE35-6FA64BA46BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C448FC70-C31C-4287-91EF-4696FDBAFD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,18 +68,12 @@
     <t>Асадуллин</t>
   </si>
   <si>
-    <t xml:space="preserve">Афанасьев </t>
-  </si>
-  <si>
     <t>Бикмухаметов</t>
   </si>
   <si>
     <t>Боровик</t>
   </si>
   <si>
-    <t xml:space="preserve">Галимов </t>
-  </si>
-  <si>
     <t>Гиниатулин</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>Шаабан</t>
   </si>
   <si>
-    <t xml:space="preserve">Шалаев </t>
-  </si>
-  <si>
     <t>Шарафан</t>
   </si>
   <si>
@@ -155,12 +146,6 @@
     <t>Куропаткин 1</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Угурлуэл </t>
-  </si>
-  <si>
     <t>Банницин</t>
   </si>
   <si>
@@ -189,6 +174,21 @@
   </si>
   <si>
     <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Афанасьев</t>
+  </si>
+  <si>
+    <t>Галимов</t>
+  </si>
+  <si>
+    <t>Угурлуэл</t>
+  </si>
+  <si>
+    <t>Шалаев</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -251,6 +251,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,13 +540,13 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.81640625" customWidth="1"/>
-    <col min="2" max="2" width="35.36328125" customWidth="1"/>
+    <col min="2" max="2" width="35.36328125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" customWidth="1"/>
@@ -556,7 +562,7 @@
       <c r="A1" s="1">
         <v>36</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -572,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>1</v>
@@ -590,10 +596,10 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>5</v>
@@ -606,14 +612,14 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>A1*1.1</f>
+        <f>$A$1*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E3" s="1">
@@ -647,7 +653,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1">
@@ -655,11 +661,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>D3</f>
+        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
         <v>39.6</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>2752.2000000000003</v>
       </c>
       <c r="F4" s="5">
@@ -671,7 +677,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -679,32 +685,32 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>2752.2000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="5">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="6">D4</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2732.4</v>
       </c>
       <c r="F5" s="5">
@@ -716,7 +722,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -724,32 +730,32 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2732.4</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2712.6</v>
       </c>
       <c r="F6" s="5">
@@ -761,7 +767,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -769,32 +775,32 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2712.6</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2692.8</v>
       </c>
       <c r="F7" s="5">
@@ -806,7 +812,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -814,32 +820,32 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2692.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2673</v>
       </c>
       <c r="F8" s="5">
@@ -851,7 +857,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -859,32 +865,32 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2673</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
+      <c r="B9" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2653.2000000000003</v>
       </c>
       <c r="F9" s="5">
@@ -896,7 +902,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -904,32 +910,32 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2653.2000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2633.4</v>
       </c>
       <c r="F10" s="5">
@@ -941,7 +947,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -949,32 +955,32 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2633.4</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2613.6</v>
       </c>
       <c r="F11" s="5">
@@ -986,7 +992,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -994,32 +1000,32 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2613.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2593.8000000000002</v>
       </c>
       <c r="F12" s="5">
@@ -1031,7 +1037,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1039,32 +1045,32 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2603.8000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2574</v>
       </c>
       <c r="F13" s="5">
@@ -1076,7 +1082,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1084,32 +1090,32 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2594</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>17</v>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2554.2000000000003</v>
       </c>
       <c r="F14" s="5">
@@ -1121,7 +1127,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1129,32 +1135,32 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2584.2000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
+      <c r="B15" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2534.4</v>
       </c>
       <c r="F15" s="5">
@@ -1166,7 +1172,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1174,32 +1180,32 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2574.4</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>19</v>
+      <c r="B16" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2514.6</v>
       </c>
       <c r="F16" s="5">
@@ -1211,7 +1217,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1219,32 +1225,32 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2564.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>20</v>
+      <c r="B17" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2494.8000000000002</v>
       </c>
       <c r="F17" s="5">
@@ -1256,7 +1262,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1264,32 +1270,32 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2554.8000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>21</v>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2475</v>
       </c>
       <c r="F18" s="5">
@@ -1301,7 +1307,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1309,32 +1315,32 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2545</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>22</v>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2455.2000000000003</v>
       </c>
       <c r="F19" s="5">
@@ -1346,7 +1352,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1354,32 +1360,32 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2535.2000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
+      <c r="B20" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2435.4</v>
       </c>
       <c r="F20" s="5">
@@ -1391,7 +1397,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1399,32 +1405,32 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2525.4</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>24</v>
+      <c r="B21" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2415.6</v>
       </c>
       <c r="F21" s="5">
@@ -1436,7 +1442,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1444,32 +1450,32 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2515.6</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>25</v>
+      <c r="B22" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2395.8000000000002</v>
       </c>
       <c r="F22" s="5">
@@ -1481,7 +1487,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1489,32 +1495,32 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2505.8000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
+      <c r="B23" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2376</v>
       </c>
       <c r="F23" s="5">
@@ -1526,7 +1532,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1534,32 +1540,32 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2496</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>27</v>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2356.2000000000003</v>
       </c>
       <c r="F24" s="5">
@@ -1571,7 +1577,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1579,32 +1585,32 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2486.2000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2336.4</v>
       </c>
       <c r="F25" s="5">
@@ -1616,7 +1622,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1624,32 +1630,32 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2476.4</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>40</v>
+      <c r="B26" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2316.6</v>
       </c>
       <c r="F26" s="5">
@@ -1661,7 +1667,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1669,32 +1675,32 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2466.6</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>29</v>
+      <c r="B27" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2296.8000000000002</v>
       </c>
       <c r="F27" s="5">
@@ -1706,7 +1712,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1714,33 +1720,33 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2456.8000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
+      <c r="B28" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f>D3/3</f>
-        <v>13.200000000000001</v>
+        <f t="shared" si="0"/>
+        <v>39.6</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
-        <v>759.00000000000011</v>
+        <f t="shared" si="1"/>
+        <v>2277</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="7"/>
@@ -1751,7 +1757,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1759,32 +1765,32 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
-        <v>929.00000000000011</v>
+        <f t="shared" si="4"/>
+        <v>2447</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>31</v>
+      <c r="B29" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f>D3</f>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2257.2000000000003</v>
       </c>
       <c r="F29" s="5">
@@ -1796,7 +1802,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1804,32 +1810,32 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2437.2000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>32</v>
+      <c r="B30" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2237.4</v>
       </c>
       <c r="F30" s="5">
@@ -1841,7 +1847,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1849,32 +1855,32 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2427.4</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>33</v>
+      <c r="B31" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2217.6</v>
       </c>
       <c r="F31" s="5">
@@ -1886,7 +1892,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1894,32 +1900,32 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2417.6</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>34</v>
+      <c r="B32" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2197.8000000000002</v>
       </c>
       <c r="F32" s="5">
@@ -1931,7 +1937,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1939,32 +1945,32 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2407.8000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>35</v>
+      <c r="B33" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2178</v>
       </c>
       <c r="F33" s="5">
@@ -1976,7 +1982,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1984,32 +1990,32 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2398</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
+      <c r="B34" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39.6</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2158.2000000000003</v>
       </c>
       <c r="F34" s="5">
@@ -2021,7 +2027,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -2029,33 +2035,33 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2388.2000000000003</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>37</v>
+      <c r="B35" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3/3</f>
-        <v>13.200000000000001</v>
+        <f>$A$1*1.1/2</f>
+        <v>19.8</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>712.80000000000007</v>
+        <f t="shared" si="1"/>
+        <v>1069.2</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="7"/>
@@ -2066,7 +2072,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2074,32 +2080,32 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
-        <v>952.80000000000007</v>
+        <f t="shared" si="4"/>
+        <v>1309.2</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>41</v>
+      <c r="B36" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D3/2</f>
+        <f t="shared" ref="D36:D38" si="10">$A$1*1.1/2</f>
         <v>19.8</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1059.3</v>
       </c>
       <c r="F36" s="5">
@@ -2111,7 +2117,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2119,32 +2125,32 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1309.3</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
+      <c r="B37" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37:D38" si="10">D4/2</f>
+        <f t="shared" si="10"/>
         <v>19.8</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1049.4000000000001</v>
       </c>
       <c r="F37" s="5">
@@ -2156,7 +2162,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2164,24 +2170,24 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1309.4000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>39</v>
+      <c r="B38" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
@@ -2189,7 +2195,7 @@
         <v>19.8</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1039.5</v>
       </c>
       <c r="F38" s="5">
@@ -2201,7 +2207,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2209,11 +2215,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1309.5</v>
       </c>
     </row>
@@ -2221,17 +2227,17 @@
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B40" s="1" t="s">
-        <v>45</v>
+      <c r="B40" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="C40">
         <f>FLOOR(SUM(K3:K38), 1)</f>
-        <v>85006</v>
+        <v>86880</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="1" t="s">
-        <v>46</v>
+      <c r="B41" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -2239,8 +2245,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="1" t="s">
-        <v>47</v>
+      <c r="B42" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -2248,8 +2254,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B43" s="1" t="s">
-        <v>48</v>
+      <c r="B43" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_36.xlsx
+++ b/LR3/table_1_36.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C448FC70-C31C-4287-91EF-4696FDBAFD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50C6299-417C-405E-8FA2-658056052A2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2231,7 +2231,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <f>FLOOR(SUM(K3:K38), 1)</f>
+        <f>FLOOR(SUM(K3:K38),1)</f>
         <v>86880</v>
       </c>
     </row>
